--- a/database/titles_db_en.xlsx
+++ b/database/titles_db_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navrozlamba/repo/portfolio-navroz/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC8E4A4-3D39-D543-8331-3FC8A7EBD410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ACB64-579B-5F4B-9C18-8E0C1015CC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="500" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
+    <workbookView xWindow="10680" yWindow="3400" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,16 @@
     <t>about</t>
   </si>
   <si>
-    <t>This is index</t>
-  </si>
-  <si>
-    <t>This is portfolio page</t>
-  </si>
-  <si>
-    <t>This is about me page</t>
+    <t xml:space="preserve">Data Scientist/Machine Learning Engineer with experience in predictive analytics, data engineering, machine learning, cloud computing, and data structures and algorithms. My background as an engineer, entrepreneur, and data enthusiast makes me excited about efficiency and precision while having an avid desire to innovate. 
+</t>
+  </si>
+  <si>
+    <t>Supervised machine learning, deep learning, times series analysis, exploratory data analysis or web development - my portfolio of projects consists of different topics and I continuously expanding. One of my newest projects is this website which I built from scratch with HTML, CSS, Python and Flask. I developed a content management system with a postgreSQL database. The rest of my projects are presented below with links to the code, blog posts and deployed projects.</t>
+  </si>
+  <si>
+    <t>I graduated from Embry-Riddle Aeronautical University with a major in Aerospace Engineering in May of 2014. I have worked with Boeing as a Retrofit and Repair Engineer for over four years.
+After some serious self-reflection about my passions and interests, I left my job with Boeing and I am now committed to learning everything I can about machine learning, data science, and the tech industry. I just graduated  from Lambda school pursuing Data Science/Machine Learning. 
+I love traveling and I have visited over 21 countries so far. I am into fitness and a healthy lifestyle. I am learning Spanish and hoping to learn french next. Every day I push myself to learn something new, whether that be about machine learning, software engineering, or miscellaneous facts about the universe.</t>
   </si>
 </sst>
 </file>
@@ -87,9 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8CA54-9BF5-0440-A910-2083D490C1AD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -426,14 +434,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -448,14 +456,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/database/titles_db_en.xlsx
+++ b/database/titles_db_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navrozlamba/repo/portfolio-navroz/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ACB64-579B-5F4B-9C18-8E0C1015CC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C6538-FCCC-8C47-B0A2-CBF7E771E19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="3400" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
+    <workbookView xWindow="-24660" yWindow="4820" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8CA54-9BF5-0440-A910-2083D490C1AD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>

--- a/database/titles_db_en.xlsx
+++ b/database/titles_db_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navrozlamba/repo/portfolio-navroz/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C6538-FCCC-8C47-B0A2-CBF7E771E19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7D449-D866-454E-AFDA-4B0FC58186FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24660" yWindow="4820" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
+    <workbookView xWindow="8720" yWindow="2340" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,22 +52,27 @@
     <t>Supervised machine learning, deep learning, times series analysis, exploratory data analysis or web development - my portfolio of projects consists of different topics and I continuously expanding. One of my newest projects is this website which I built from scratch with HTML, CSS, Python and Flask. I developed a content management system with a postgreSQL database. The rest of my projects are presented below with links to the code, blog posts and deployed projects.</t>
   </si>
   <si>
-    <t>I graduated from Embry-Riddle Aeronautical University with a major in Aerospace Engineering in May of 2014. I have worked with Boeing as a Retrofit and Repair Engineer for over four years.
-After some serious self-reflection about my passions and interests, I left my job with Boeing and I am now committed to learning everything I can about machine learning, data science, and the tech industry. I just graduated  from Lambda school pursuing Data Science/Machine Learning. 
-I love traveling and I have visited over 21 countries so far. I am into fitness and a healthy lifestyle. I am learning Spanish and hoping to learn french next. Every day I push myself to learn something new, whether that be about machine learning, software engineering, or miscellaneous facts about the universe.</t>
+    <t>I graduated from Embry-Riddle Aeronautical University with a major in Aerospace Engineering in May of 2014. I have worked for Boeing as a Retrofit and Repair Engineer for over four years.
+After some serious self-reflection about my passions and interests, I left my job with Boeing and I am now committed to learning everything I can about machine learning, data science, and the tech industry. I just graduated from Lambda school, and I am looking for a Data Scientist/Machine Learning position with a forward-moving company. With my possession of extensive analytical skills, strong attention to detail, and a significant ability to work in team environments, I am committed to helping companies advance by developing strategic plans based on prediction modeling and findings.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -98,6 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8CA54-9BF5-0440-A910-2083D490C1AD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -466,6 +472,9 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/titles_db_en.xlsx
+++ b/database/titles_db_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navrozlamba/repo/portfolio-navroz/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7D449-D866-454E-AFDA-4B0FC58186FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913572BF-38E7-734D-B57F-431693BCB1B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="2340" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
+    <workbookView xWindow="50940" yWindow="940" windowWidth="20680" windowHeight="20140" xr2:uid="{BE9CF97B-0840-1748-96CC-677E31A7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,11 +49,11 @@
 </t>
   </si>
   <si>
-    <t>Supervised machine learning, deep learning, times series analysis, exploratory data analysis or web development - my portfolio of projects consists of different topics and I continuously expanding. One of my newest projects is this website which I built from scratch with HTML, CSS, Python and Flask. I developed a content management system with a postgreSQL database. The rest of my projects are presented below with links to the code, blog posts and deployed projects.</t>
-  </si>
-  <si>
     <t>I graduated from Embry-Riddle Aeronautical University with a major in Aerospace Engineering in May of 2014. I have worked for Boeing as a Retrofit and Repair Engineer for over four years.
 After some serious self-reflection about my passions and interests, I left my job with Boeing and I am now committed to learning everything I can about machine learning, data science, and the tech industry. I just graduated from Lambda school, and I am looking for a Data Scientist/Machine Learning position with a forward-moving company. With my possession of extensive analytical skills, strong attention to detail, and a significant ability to work in team environments, I am committed to helping companies advance by developing strategic plans based on prediction modeling and findings.</t>
+  </si>
+  <si>
+    <t>Supervised machine learning, deep learning, times series analysis, exploratory data analysis, or web development - my portfolio of projects consists of different topics, and I am continuously expanding. My projects are showcased below with links to the code, blog posts, and deployed web applications.</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
